--- a/LAB4/LAB4 EXCEL.xlsx
+++ b/LAB4/LAB4 EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\LABs\Software-Testing-and-Quality-Assurance-Lab\LAB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8769D64-C33D-4C91-BD03-6DAF30A55F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32F3BC-A417-49BD-98B6-873ABD1277ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="0" windowWidth="10490" windowHeight="10170" xr2:uid="{CB755291-B1E4-4FC3-9306-85A773A1C943}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TC_ID</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Bonus_Points</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Actual BP</t>
   </si>
 </sst>
 </file>
@@ -117,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,12 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66188539-011D-4866-A7ED-694D61DAB6CE}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +490,7 @@
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,8 +509,14 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,11 +535,14 @@
       <c r="F3" s="1">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -537,11 +561,14 @@
       <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,13 +585,16 @@
         <v>0.05</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,11 +613,14 @@
       <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,11 +639,14 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +665,10 @@
       <c r="F8" s="1">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>
